--- a/project.xlsx
+++ b/project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamil\OneDrive\Documents\1 UPenn\Stats Directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamil\OneDrive\Documents\1 UPenn\Project Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF81EC4-BA8D-47A3-8EE1-EF932CF0AE19}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA347204-2DB9-452C-A37E-D53C9440C0F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4722" uniqueCount="3812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4723" uniqueCount="3813">
   <si>
     <t>state_fips</t>
   </si>
@@ -11482,7 +11482,10 @@
     <t xml:space="preserve">Crude Suicide </t>
   </si>
   <si>
-    <t xml:space="preserve">Suicide Info </t>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>https://wallethub.com/edu/happiest-states/6959/</t>
   </si>
 </sst>
 </file>
@@ -17527,10 +17530,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E57347-C0DC-43CD-96D2-7EB863532778}">
-  <dimension ref="A4:D17"/>
+  <dimension ref="A4:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17585,6 +17588,11 @@
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>3811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>3812</v>
       </c>
     </row>
   </sheetData>
